--- a/biology/Botanique/Solanum_berthaultii/Solanum_berthaultii.xlsx
+++ b/biology/Botanique/Solanum_berthaultii/Solanum_berthaultii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum berthaultii (syn. Solanum tarijense) est une espèce de plante herbacée tubéreuse appartenant au genre Solanum et à la famille des Solanacées, originaire des Andes.
-Cette espèce de pomme de terre sauvage, proche de la pomme de terre  (Solanum tuberosum), est classée comme celle-ci dans la section Petota du genre Solanum[1].
-L'adjectif spécifique berthaultii est un hommage à Pierre Berthault, botaniste français qui publia un traité sur Solanum tuberosum et les espèces sauvages apparentées en 1911[1].
+Cette espèce de pomme de terre sauvage, proche de la pomme de terre  (Solanum tuberosum), est classée comme celle-ci dans la section Petota du genre Solanum.
+L'adjectif spécifique berthaultii est un hommage à Pierre Berthault, botaniste français qui publia un traité sur Solanum tuberosum et les espèces sauvages apparentées en 1911.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum berthaultii possède deux types de trichomes dont les têtes glandulaires contiennent des phénols et des phénoloxydases capables d'immobiliser les pucerons[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum berthaultii possède deux types de trichomes dont les têtes glandulaires contiennent des phénols et des phénoloxydases capables d'immobiliser les pucerons.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante endémique de la région andine du sud-ouest de l'Amérique du Sud : Bolivie (Chuquisaca, Cochabamba, Potosi, Santa Cruz, Tarija), Argentine (Catamarca, Jujuy, Salta)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante endémique de la région andine du sud-ouest de l'Amérique du Sud : Bolivie (Chuquisaca, Cochabamba, Potosi, Santa Cruz, Tarija), Argentine (Catamarca, Jujuy, Salta).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum berthaultii, qui peut s'hybrider avec la pomme de terre[4], est pour celle-ci une source de variabilité génétique. Elle compte notamment des gènes de résistance à différents agresseurs biotiques de la pomme de terre dont le mildiou[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum berthaultii, qui peut s'hybrider avec la pomme de terre, est pour celle-ci une source de variabilité génétique. Elle compte notamment des gènes de résistance à différents agresseurs biotiques de la pomme de terre dont le mildiou.
 </t>
         </is>
       </c>
